--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-215773.634539577</v>
+        <v>-216485.8992933226</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058549</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.1776483877525586</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>3.097658594934726</v>
-      </c>
-      <c r="X9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>133.8060935868269</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="G11" t="n">
         <v>188.4860450762373</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294985</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>150.5497688897769</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1491,22 +1491,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.87368945842314</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>102.7708267783926</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T12" t="n">
+        <v>113.0653654733694</v>
+      </c>
+      <c r="U12" t="n">
+        <v>59.08630782930766</v>
+      </c>
+      <c r="V12" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="U12" t="n">
-        <v>188.4860450762373</v>
-      </c>
-      <c r="V12" t="n">
-        <v>62.50715706586129</v>
       </c>
       <c r="W12" t="n">
         <v>88.56281972747064</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
-        <v>152.4913099177614</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.7436753029498</v>
+        <v>16.74367530294985</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013695</v>
+        <v>49.37664323013701</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692376</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204234</v>
       </c>
       <c r="V14" t="n">
-        <v>142.738019759611</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3.170793967346034</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451651</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>17.51749446138635</v>
+        <v>9.376387674824969</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.87368945842314</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>86.50796839080739</v>
+      </c>
+      <c r="T15" t="n">
+        <v>36.82929343736552</v>
+      </c>
+      <c r="U15" t="n">
+        <v>59.08630782930766</v>
+      </c>
+      <c r="V15" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="T15" t="n">
-        <v>36.82929343736546</v>
-      </c>
-      <c r="U15" t="n">
-        <v>59.08630782930761</v>
-      </c>
-      <c r="V15" t="n">
-        <v>62.50715706586124</v>
-      </c>
       <c r="W15" t="n">
-        <v>88.56281972747058</v>
+        <v>88.56281972747064</v>
       </c>
       <c r="X15" t="n">
-        <v>39.1711505899296</v>
+        <v>39.17115058992965</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448461</v>
+        <v>45.24252228448466</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386645</v>
+        <v>25.28944752386651</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345547</v>
+        <v>57.29676508345553</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433102</v>
+        <v>45.61991340433108</v>
       </c>
       <c r="U16" t="n">
         <v>110.5147946356657</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490889</v>
+        <v>66.96725133490895</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1689432397943</v>
+        <v>112.1689432397944</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870152</v>
+        <v>43.77769155870158</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462741</v>
+        <v>38.99950896462747</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256523</v>
+        <v>76.63531193256529</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591072</v>
+        <v>52.75356893591078</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695918</v>
+        <v>40.32023119695924</v>
       </c>
       <c r="E17" t="n">
-        <v>74.02698361636806</v>
+        <v>74.02698361636811</v>
       </c>
       <c r="F17" t="n">
         <v>105.7473211947454</v>
@@ -1859,7 +1859,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426087</v>
+        <v>49.57010498426092</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388392</v>
+        <v>23.42785516388398</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049879</v>
+        <v>40.44453538049885</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943803</v>
+        <v>62.33078584943809</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318179</v>
+        <v>84.83363897318185</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>104.626159502857</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.87368945842314</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.6665152207955</v>
       </c>
       <c r="S18" t="n">
         <v>188.4860450762373</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256523</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591026</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E20" t="n">
-        <v>74.02698361636816</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426087</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>53.16727261931771</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>31.29664852568515</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256523</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591072</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E23" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426087</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.195069383221347</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3.608006036227115</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2640,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>214.9710572869065</v>
+        <v>133.7030000306789</v>
       </c>
       <c r="U27" t="n">
         <v>23.74004232671962</v>
       </c>
       <c r="V27" t="n">
-        <v>80.52116847676078</v>
+        <v>27.16089156327325</v>
       </c>
       <c r="W27" t="n">
-        <v>53.2165542248826</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>3.824885087341613</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754896</v>
+        <v>14.03037772754897</v>
       </c>
       <c r="T29" t="n">
-        <v>8.97812339433572</v>
+        <v>8.978123394335711</v>
       </c>
       <c r="U29" t="n">
         <v>36.66251709945431</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.48302793477748</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671962</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327325</v>
+        <v>230.4521183244766</v>
       </c>
       <c r="W30" t="n">
-        <v>256.5077809860859</v>
+        <v>53.2165542248826</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>3.824885087341613</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.896256781896625</v>
       </c>
     </row>
     <row r="31">
@@ -3035,19 +3035,19 @@
         <v>123.3742458308777</v>
       </c>
       <c r="E32" t="n">
-        <v>157.0809982502865</v>
+        <v>157.0809982502866</v>
       </c>
       <c r="F32" t="n">
         <v>188.8013358286639</v>
       </c>
       <c r="G32" t="n">
-        <v>204.4403211379683</v>
+        <v>204.4403211379684</v>
       </c>
       <c r="H32" t="n">
-        <v>132.6241196181793</v>
+        <v>132.6241196181794</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514519987</v>
+        <v>26.6142451451999</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832835</v>
+        <v>13.12049326832837</v>
       </c>
       <c r="T32" t="n">
-        <v>8.06823893511509</v>
+        <v>8.068238935115119</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023368</v>
+        <v>35.75263264023371</v>
       </c>
       <c r="V32" t="n">
         <v>106.4818697978024</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.5574297366912</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755568597</v>
+        <v>0.5731434755568882</v>
       </c>
       <c r="U33" t="n">
-        <v>22.830157867499</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405263</v>
+        <v>26.25100710405266</v>
       </c>
       <c r="W33" t="n">
-        <v>52.30666976566198</v>
+        <v>124.5155743862832</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628120993</v>
+        <v>2.915000628121021</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.986372322676004</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164686</v>
+        <v>21.04061512164689</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522421</v>
+        <v>9.363763442522449</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385705</v>
+        <v>74.25864467385708</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310029</v>
+        <v>30.71110137310032</v>
       </c>
       <c r="W34" t="n">
-        <v>75.91279327798571</v>
+        <v>75.91279327798574</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596892916</v>
+        <v>7.521541596892945</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818806</v>
+        <v>2.743359002818835</v>
       </c>
     </row>
     <row r="35">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="X36" t="n">
-        <v>160.361956231485</v>
+        <v>190.1717289305978</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3630,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>41.42709129017876</v>
       </c>
       <c r="W39" t="n">
-        <v>54.39903635063117</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47830382393111</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.87368945842314</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>47.60858183021878</v>
+        <v>25.69242462046211</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>74.20268730176298</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.138387495033818</v>
+        <v>9.138387495033811</v>
       </c>
       <c r="V44" t="n">
         <v>79.86762465260253</v>
@@ -4059,22 +4059,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>12.16735068477399</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.76027828811329</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>25.69242462046211</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="C8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="D8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="E8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="F8" t="n">
-        <v>3.833742919262513</v>
+        <v>4.013185735174188</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="J8" t="n">
         <v>0.2813495544899843</v>
@@ -4820,34 +4820,34 @@
         <v>7.244751028117094</v>
       </c>
       <c r="P8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="V8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="W8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="X8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.065308212205419</v>
+        <v>7.244751028117094</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.45619840956866</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>3.622375514058549</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
         <v>7.104076250872104</v>
@@ -4902,28 +4902,28 @@
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="T9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="U9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="V9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="W9" t="n">
-        <v>10.93852964880757</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="X9" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="Y9" t="n">
         <v>7.386136284035041</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>501.8693224502915</v>
+        <v>557.1015966820191</v>
       </c>
       <c r="C11" t="n">
-        <v>501.8693224502915</v>
+        <v>557.1015966820191</v>
       </c>
       <c r="D11" t="n">
-        <v>340.626498417275</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="E11" t="n">
-        <v>340.626498417275</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="F11" t="n">
         <v>205.4688281275508</v>
@@ -5045,16 +5045,16 @@
         <v>285.1128385102955</v>
       </c>
       <c r="L11" t="n">
-        <v>331.823996849332</v>
+        <v>471.7140231357704</v>
       </c>
       <c r="M11" t="n">
-        <v>412.6751204626773</v>
+        <v>552.5651467491158</v>
       </c>
       <c r="N11" t="n">
-        <v>487.9920637663395</v>
+        <v>627.8820900527779</v>
       </c>
       <c r="O11" t="n">
-        <v>522.2023588431217</v>
+        <v>662.0923851295602</v>
       </c>
       <c r="P11" t="n">
         <v>666.4050806852708</v>
@@ -5063,28 +5063,28 @@
         <v>753.9441803049491</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686361</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0313769686361</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T11" t="n">
-        <v>692.2592669717433</v>
+        <v>709.1720703080564</v>
       </c>
       <c r="U11" t="n">
-        <v>692.2592669717433</v>
+        <v>709.1720703080564</v>
       </c>
       <c r="V11" t="n">
-        <v>692.2592669717433</v>
+        <v>709.1720703080564</v>
       </c>
       <c r="W11" t="n">
-        <v>692.2592669717433</v>
+        <v>557.1015966820191</v>
       </c>
       <c r="X11" t="n">
-        <v>692.2592669717433</v>
+        <v>557.1015966820191</v>
       </c>
       <c r="Y11" t="n">
-        <v>692.2592669717433</v>
+        <v>557.1015966820191</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5121,7 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936459</v>
       </c>
       <c r="L12" t="n">
         <v>170.3626975743616</v>
@@ -5139,19 +5139,19 @@
         <v>753.9441803049491</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398752</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0010596398752</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S12" t="n">
-        <v>643.1921437021049</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="T12" t="n">
-        <v>452.8021991806531</v>
+        <v>449.346795911407</v>
       </c>
       <c r="U12" t="n">
-        <v>262.4122546592013</v>
+        <v>389.6636566898841</v>
       </c>
       <c r="V12" t="n">
         <v>199.2737121684323</v>
@@ -5176,46 +5176,46 @@
         <v>15.07888360609898</v>
       </c>
       <c r="C13" t="n">
-        <v>26.6466206548919</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D13" t="n">
-        <v>26.6466206548919</v>
+        <v>47.70840606894092</v>
       </c>
       <c r="E13" t="n">
-        <v>26.6466206548919</v>
+        <v>83.80937247988373</v>
       </c>
       <c r="F13" t="n">
-        <v>26.6466206548919</v>
+        <v>83.80937247988373</v>
       </c>
       <c r="G13" t="n">
-        <v>35.99317216102141</v>
+        <v>85.60046131550777</v>
       </c>
       <c r="H13" t="n">
-        <v>35.99317216102141</v>
+        <v>85.60046131550777</v>
       </c>
       <c r="I13" t="n">
-        <v>49.14825217176291</v>
+        <v>85.60046131550777</v>
       </c>
       <c r="J13" t="n">
-        <v>106.4694407143483</v>
+        <v>85.60046131550777</v>
       </c>
       <c r="K13" t="n">
-        <v>216.4669084466107</v>
+        <v>85.60046131550777</v>
       </c>
       <c r="L13" t="n">
-        <v>216.4669084466107</v>
+        <v>230.1264169214768</v>
       </c>
       <c r="M13" t="n">
-        <v>216.4669084466107</v>
+        <v>381.5177513997458</v>
       </c>
       <c r="N13" t="n">
-        <v>216.4669084466107</v>
+        <v>381.5177513997458</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8936825085037</v>
+        <v>520.7701116317063</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385326</v>
+        <v>520.7701116317063</v>
       </c>
       <c r="Q13" t="n">
         <v>520.7701116317063</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.1105097856559</v>
+        <v>376.0549590164276</v>
       </c>
       <c r="C14" t="n">
-        <v>169.1105097856559</v>
+        <v>376.0549590164276</v>
       </c>
       <c r="D14" t="n">
-        <v>169.1105097856559</v>
+        <v>376.0549590164276</v>
       </c>
       <c r="E14" t="n">
-        <v>169.1105097856559</v>
+        <v>376.0549590164276</v>
       </c>
       <c r="F14" t="n">
-        <v>169.1105097856559</v>
+        <v>185.6650144949758</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07888360609898</v>
+        <v>185.6650144949758</v>
       </c>
       <c r="H14" t="n">
         <v>15.07888360609898</v>
@@ -5276,52 +5276,52 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115223</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K14" t="n">
-        <v>267.9050913919197</v>
+        <v>184.7715035048723</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6162497309561</v>
+        <v>231.4826618439087</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4673733443014</v>
+        <v>418.0838464693836</v>
       </c>
       <c r="N14" t="n">
-        <v>470.7843166479636</v>
+        <v>604.6850310948585</v>
       </c>
       <c r="O14" t="n">
-        <v>504.9946117247459</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852708</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q14" t="n">
         <v>753.9441803049491</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686362</v>
+        <v>737.0313769686361</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664777</v>
+        <v>687.1559797664776</v>
       </c>
       <c r="T14" t="n">
-        <v>687.1559797664777</v>
+        <v>642.3838697695849</v>
       </c>
       <c r="U14" t="n">
-        <v>687.1559797664777</v>
+        <v>569.6477257271177</v>
       </c>
       <c r="V14" t="n">
-        <v>542.9761618274766</v>
+        <v>569.6477257271177</v>
       </c>
       <c r="W14" t="n">
-        <v>542.9761618274766</v>
+        <v>566.4449035378793</v>
       </c>
       <c r="X14" t="n">
-        <v>359.5004543071078</v>
+        <v>566.4449035378793</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.5004543071078</v>
+        <v>376.0549590164276</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.7817101569247</v>
+        <v>204.5642739053502</v>
       </c>
       <c r="C15" t="n">
-        <v>68.0872713070395</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="D15" t="n">
-        <v>68.0872713070395</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="E15" t="n">
-        <v>68.0872713070395</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="F15" t="n">
-        <v>68.0872713070395</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="G15" t="n">
-        <v>68.0872713070395</v>
+        <v>195.0931752439108</v>
       </c>
       <c r="H15" t="n">
         <v>68.0872713070395</v>
@@ -5376,31 +5376,31 @@
         <v>753.9441803049491</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0010596398752</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R15" t="n">
-        <v>610.9183727939513</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S15" t="n">
-        <v>420.5284282724995</v>
+        <v>666.5623940516083</v>
       </c>
       <c r="T15" t="n">
-        <v>383.3271217701102</v>
+        <v>629.3610875492188</v>
       </c>
       <c r="U15" t="n">
-        <v>323.6439825485874</v>
+        <v>569.677948327696</v>
       </c>
       <c r="V15" t="n">
-        <v>260.5054400578184</v>
+        <v>379.2880038062441</v>
       </c>
       <c r="W15" t="n">
-        <v>171.0480463937067</v>
+        <v>289.8306101421323</v>
       </c>
       <c r="X15" t="n">
-        <v>131.4812276160001</v>
+        <v>250.2637913644256</v>
       </c>
       <c r="Y15" t="n">
-        <v>85.7817101569247</v>
+        <v>204.5642739053502</v>
       </c>
     </row>
     <row r="16">
@@ -5419,64 +5419,64 @@
         <v>15.07888360609898</v>
       </c>
       <c r="E16" t="n">
-        <v>45.32266600169469</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F16" t="n">
-        <v>45.32266600169469</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G16" t="n">
-        <v>45.32266600169469</v>
+        <v>24.4254351122285</v>
       </c>
       <c r="H16" t="n">
-        <v>45.32266600169469</v>
+        <v>24.4254351122285</v>
       </c>
       <c r="I16" t="n">
-        <v>45.32266600169469</v>
+        <v>37.58051512296999</v>
       </c>
       <c r="J16" t="n">
-        <v>102.6438545442801</v>
+        <v>94.90170366555535</v>
       </c>
       <c r="K16" t="n">
-        <v>212.6413222765426</v>
+        <v>94.90170366555535</v>
       </c>
       <c r="L16" t="n">
-        <v>212.6413222765426</v>
+        <v>94.90170366555535</v>
       </c>
       <c r="M16" t="n">
-        <v>212.6413222765426</v>
+        <v>212.6413222765432</v>
       </c>
       <c r="N16" t="n">
-        <v>212.6413222765426</v>
+        <v>212.6413222765432</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8936825085032</v>
+        <v>351.8936825085037</v>
       </c>
       <c r="P16" t="n">
-        <v>470.3568865385321</v>
+        <v>470.3568865385326</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317058</v>
+        <v>520.7701116317063</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429518</v>
+        <v>495.2252151429522</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566332</v>
+        <v>437.3496948566335</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461978</v>
+        <v>391.2689742461981</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536062</v>
+        <v>279.6378685536064</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365265</v>
+        <v>211.9941803365267</v>
       </c>
       <c r="W16" t="n">
-        <v>98.6922174680474</v>
+        <v>98.69221746804752</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471253</v>
+        <v>54.47232700471259</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609898</v>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417491</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731524</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D17" t="n">
         <v>369.3523344135977</v>
@@ -5501,46 +5501,46 @@
         <v>294.5776034879734</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336851</v>
+        <v>187.762127533685</v>
       </c>
       <c r="G17" t="n">
-        <v>65.149696721514</v>
+        <v>65.14969672151406</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>70.9542553999304</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J17" t="n">
-        <v>139.9550030791505</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K17" t="n">
-        <v>139.9550030791505</v>
+        <v>32.25083956464891</v>
       </c>
       <c r="L17" t="n">
-        <v>186.666161418187</v>
+        <v>218.8520241901238</v>
       </c>
       <c r="M17" t="n">
-        <v>267.5172850315323</v>
+        <v>299.7031478034692</v>
       </c>
       <c r="N17" t="n">
-        <v>342.8342283351944</v>
+        <v>486.3043324289441</v>
       </c>
       <c r="O17" t="n">
-        <v>377.0445234119767</v>
+        <v>520.5146275057264</v>
       </c>
       <c r="P17" t="n">
-        <v>377.0445234119767</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="Q17" t="n">
-        <v>563.6457080374516</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="R17" t="n">
-        <v>563.6457080374516</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893858</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T17" t="n">
         <v>707.1158121312012</v>
@@ -5555,10 +5555,10 @@
         <v>689.4266140985019</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342395</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.5542357834972</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="C18" t="n">
-        <v>457.8712463866719</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0911301477037</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="E18" t="n">
-        <v>123.5279262691182</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="F18" t="n">
-        <v>123.5279262691182</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="G18" t="n">
-        <v>123.5279262691182</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="H18" t="n">
-        <v>123.5279262691182</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="I18" t="n">
-        <v>15.07888360609898</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="J18" t="n">
         <v>15.07888360609898</v>
@@ -5613,31 +5613,31 @@
         <v>753.9441803049491</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049491</v>
+        <v>747.0010596398752</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9441803049491</v>
+        <v>639.2571048713949</v>
       </c>
       <c r="S18" t="n">
-        <v>563.5542357834972</v>
+        <v>448.8671603499431</v>
       </c>
       <c r="T18" t="n">
-        <v>563.5542357834972</v>
+        <v>258.4772158284913</v>
       </c>
       <c r="U18" t="n">
-        <v>563.5542357834972</v>
+        <v>258.4772158284913</v>
       </c>
       <c r="V18" t="n">
-        <v>563.5542357834972</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="W18" t="n">
-        <v>563.5542357834972</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="X18" t="n">
-        <v>563.5542357834972</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="Y18" t="n">
-        <v>563.5542357834972</v>
+        <v>68.0872713070395</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417497</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731531</v>
+        <v>410.079840673153</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135986</v>
+        <v>369.3523344135983</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879737</v>
+        <v>294.577603487974</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336857</v>
       </c>
       <c r="G20" t="n">
-        <v>65.14969672151395</v>
+        <v>65.149696721514</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993046</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95425539993046</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95425539993046</v>
+        <v>257.5554400254053</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6654137389669</v>
+        <v>304.2665983644417</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5165373523122</v>
+        <v>454.1184696570073</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8334806559744</v>
+        <v>529.4354129606694</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0437757327567</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="P20" t="n">
-        <v>308.0437757327567</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.1048836376019</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="R20" t="n">
-        <v>563.6457080374514</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="S20" t="n">
-        <v>632.8798941893857</v>
+        <v>632.8798941893858</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1158121312011</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U20" t="n">
         <v>753.9441803049491</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394098</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515952</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342397</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>509.8499200064086</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C21" t="n">
-        <v>509.8499200064086</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D21" t="n">
-        <v>349.0698037674404</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E21" t="n">
-        <v>175.5065998888549</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F21" t="n">
         <v>15.07888360609898</v>
@@ -5832,7 +5832,7 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936459</v>
+        <v>53.03690762936455</v>
       </c>
       <c r="L21" t="n">
         <v>170.3626975743616</v>
@@ -5853,28 +5853,28 @@
         <v>753.9441803049491</v>
       </c>
       <c r="R21" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="S21" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="T21" t="n">
-        <v>753.9441803049491</v>
+        <v>427.4715489375735</v>
       </c>
       <c r="U21" t="n">
-        <v>753.9441803049491</v>
+        <v>237.0816044161216</v>
       </c>
       <c r="V21" t="n">
-        <v>753.9441803049491</v>
+        <v>46.69165989466984</v>
       </c>
       <c r="W21" t="n">
-        <v>753.9441803049491</v>
+        <v>46.69165989466984</v>
       </c>
       <c r="X21" t="n">
-        <v>753.9441803049491</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="Y21" t="n">
-        <v>563.5542357834972</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.366273941749</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731523</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D23" t="n">
         <v>369.3523344135978</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879735</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336857</v>
+        <v>187.7621275336853</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151395</v>
+        <v>65.149696721514</v>
       </c>
       <c r="H23" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07888360609898</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="J23" t="n">
-        <v>201.6800682315739</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="K23" t="n">
-        <v>201.6800682315739</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="L23" t="n">
-        <v>248.3912265706103</v>
+        <v>257.5554400254053</v>
       </c>
       <c r="M23" t="n">
-        <v>329.2423501839556</v>
+        <v>444.1566246508802</v>
       </c>
       <c r="N23" t="n">
-        <v>404.5592934876178</v>
+        <v>519.4735679545423</v>
       </c>
       <c r="O23" t="n">
-        <v>438.7695885644001</v>
+        <v>553.6838630313246</v>
       </c>
       <c r="P23" t="n">
-        <v>563.6457080374514</v>
+        <v>553.6838630313246</v>
       </c>
       <c r="Q23" t="n">
-        <v>563.6457080374514</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="R23" t="n">
-        <v>563.6457080374514</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="S23" t="n">
-        <v>632.8798941893857</v>
+        <v>632.8798941893858</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1158121312011</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U23" t="n">
         <v>753.9441803049491</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394094</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985013</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515944</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342391</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>175.5065998888549</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="C24" t="n">
-        <v>175.5065998888549</v>
+        <v>614.2170429173817</v>
       </c>
       <c r="D24" t="n">
-        <v>175.5065998888549</v>
+        <v>614.2170429173817</v>
       </c>
       <c r="E24" t="n">
-        <v>175.5065998888549</v>
+        <v>614.2170429173817</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07888360609898</v>
+        <v>453.7893266346258</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07888360609898</v>
+        <v>303.54221790693</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07888360609898</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609898</v>
+        <v>68.0872713070395</v>
       </c>
       <c r="J24" t="n">
         <v>15.07888360609898</v>
@@ -6090,28 +6090,28 @@
         <v>753.9441803049491</v>
       </c>
       <c r="R24" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="S24" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="T24" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="U24" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="V24" t="n">
-        <v>753.9441803049491</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="W24" t="n">
-        <v>563.5542357834972</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="X24" t="n">
-        <v>373.1642912620454</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="Y24" t="n">
-        <v>182.7743467405936</v>
+        <v>617.8614934590253</v>
       </c>
     </row>
     <row r="25">
@@ -6200,67 +6200,67 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.877441161907</v>
+        <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.778988607311</v>
+        <v>882.7789886073106</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617572</v>
+        <v>757.2394630617567</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501338</v>
+        <v>597.6527128501333</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098463</v>
+        <v>406.0252176098459</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116752</v>
+        <v>198.6007675116753</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026112</v>
+        <v>63.71793511026091</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2499218476703</v>
+        <v>171.24992184767</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940058</v>
+        <v>375.9353445940055</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916499</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636029</v>
+        <v>926.2039246636027</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025873</v>
+        <v>1212.874017025872</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P26" t="n">
         <v>1654.84073296935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.37263543659</v>
+        <v>1777.372635436591</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.789199734232</v>
+        <v>1795.789199734233</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019536</v>
+        <v>1781.617101019537</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510107</v>
       </c>
       <c r="U26" t="n">
         <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503564</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W26" t="n">
         <v>1501.373839176656</v>
@@ -6269,7 +6269,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.4789878732702</v>
+        <v>1326.062271080777</v>
       </c>
       <c r="C27" t="n">
-        <v>209.4789878732702</v>
+        <v>1326.062271080777</v>
       </c>
       <c r="D27" t="n">
-        <v>209.4789878732702</v>
+        <v>1326.062271080777</v>
       </c>
       <c r="E27" t="n">
-        <v>35.91578399468464</v>
+        <v>1326.062271080777</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91578399468464</v>
+        <v>1165.634554798021</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91578399468464</v>
+        <v>1165.634554798021</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91578399468464</v>
+        <v>1038.628650861149</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91578399468464</v>
+        <v>1038.628650861149</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468464</v>
+        <v>1038.628650861149</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795024</v>
+        <v>1076.586674884415</v>
       </c>
       <c r="L27" t="n">
-        <v>191.1995979629473</v>
+        <v>1193.912464829412</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8679251462135</v>
+        <v>1375.580792012678</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7643619459217</v>
+        <v>1580.477228812386</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4574894891929</v>
+        <v>1712.170356355658</v>
       </c>
       <c r="P27" t="n">
-        <v>793.0763328677681</v>
+        <v>1795.789199734233</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.0763328677681</v>
+        <v>1795.789199734233</v>
       </c>
       <c r="R27" t="n">
-        <v>793.0763328677681</v>
+        <v>1795.789199734233</v>
       </c>
       <c r="S27" t="n">
-        <v>599.5496587667124</v>
+        <v>1795.789199734233</v>
       </c>
       <c r="T27" t="n">
-        <v>382.407176658726</v>
+        <v>1660.735664349708</v>
       </c>
       <c r="U27" t="n">
-        <v>358.4273359246658</v>
+        <v>1636.755823615648</v>
       </c>
       <c r="V27" t="n">
-        <v>277.0928223117761</v>
+        <v>1609.320579612342</v>
       </c>
       <c r="W27" t="n">
-        <v>223.338727135127</v>
+        <v>1339.922010342633</v>
       </c>
       <c r="X27" t="n">
-        <v>219.4752068448829</v>
+        <v>1336.058490052389</v>
       </c>
       <c r="Y27" t="n">
-        <v>209.4789878732702</v>
+        <v>1326.062271080777</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.42818159497392</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="C28" t="n">
-        <v>117.988721491329</v>
+        <v>82.47632389103973</v>
       </c>
       <c r="D28" t="n">
-        <v>117.988721491329</v>
+        <v>82.47632389103973</v>
       </c>
       <c r="E28" t="n">
-        <v>117.988721491329</v>
+        <v>153.5700931495447</v>
       </c>
       <c r="F28" t="n">
-        <v>117.988721491329</v>
+        <v>227.3856288118902</v>
       </c>
       <c r="G28" t="n">
-        <v>117.988721491329</v>
+        <v>227.3856288118902</v>
       </c>
       <c r="H28" t="n">
-        <v>165.1754721314503</v>
+        <v>227.3856288118902</v>
       </c>
       <c r="I28" t="n">
-        <v>213.323354989754</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="J28" t="n">
         <v>266.1390261192992</v>
@@ -6415,19 +6415,19 @@
         <v>233.5893821974704</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923415</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627244</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170784</v>
+        <v>48.12252088170785</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583558</v>
+        <v>39.60592890583559</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468464</v>
+        <v>35.91578399468465</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.877441161906</v>
+        <v>1020.877441161907</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073105</v>
+        <v>882.778988607311</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617566</v>
+        <v>757.2394630617572</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501338</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098458</v>
+        <v>406.0252176098464</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116751</v>
+        <v>198.6007675116757</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026091</v>
+        <v>63.71793511026181</v>
       </c>
       <c r="I29" t="n">
         <v>35.91578399468464</v>
@@ -6464,10 +6464,10 @@
         <v>171.24992184767</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940054</v>
+        <v>375.9353445940055</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916496</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M29" t="n">
         <v>926.2039246636026</v>
@@ -6570,19 +6570,19 @@
         <v>793.0763328677681</v>
       </c>
       <c r="T30" t="n">
-        <v>791.5783248528413</v>
+        <v>575.9338507597818</v>
       </c>
       <c r="U30" t="n">
-        <v>767.5984841187811</v>
+        <v>336.3095359326619</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1632401154748</v>
+        <v>103.5296184331905</v>
       </c>
       <c r="W30" t="n">
-        <v>481.0644714426606</v>
+        <v>49.77552325654145</v>
       </c>
       <c r="X30" t="n">
-        <v>261.556477059357</v>
+        <v>45.91200296629739</v>
       </c>
       <c r="Y30" t="n">
         <v>35.91578399468464</v>
@@ -6610,37 +6610,37 @@
         <v>35.91578399468464</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91578399468464</v>
+        <v>80.25513834837631</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91578399468464</v>
+        <v>80.25513834837631</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91578399468464</v>
+        <v>128.40302120668</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91578399468464</v>
+        <v>128.40302120668</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91578399468464</v>
+        <v>128.40302120668</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91578399468464</v>
+        <v>128.40302120668</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91578399468464</v>
+        <v>128.40302120668</v>
       </c>
       <c r="N31" t="n">
-        <v>35.91578399468464</v>
+        <v>128.40302120668</v>
       </c>
       <c r="O31" t="n">
-        <v>35.91578399468464</v>
+        <v>170.776748379629</v>
       </c>
       <c r="P31" t="n">
-        <v>189.3717908722756</v>
+        <v>170.776748379629</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192992</v>
+        <v>256.1827763203649</v>
       </c>
       <c r="R31" t="n">
         <v>266.1390261192992</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128078</v>
+        <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848166</v>
+        <v>876.9831877848167</v>
       </c>
       <c r="D32" t="n">
         <v>752.3627374505967</v>
@@ -6686,58 +6686,58 @@
         <v>593.6950624503072</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213538</v>
+        <v>402.9866424213542</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345171</v>
+        <v>196.4812675345174</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443695</v>
+        <v>62.51751034443699</v>
       </c>
       <c r="I32" t="n">
         <v>35.63443444019465</v>
       </c>
       <c r="J32" t="n">
-        <v>169.2935091184137</v>
+        <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>374.8797174793776</v>
+        <v>355.5623675671077</v>
       </c>
       <c r="L32" t="n">
-        <v>633.8448104916502</v>
+        <v>614.5274605793802</v>
       </c>
       <c r="M32" t="n">
-        <v>926.9498687782316</v>
+        <v>907.6325188659615</v>
       </c>
       <c r="N32" t="n">
-        <v>1214.52074675513</v>
+        <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.984976505148</v>
+        <v>1441.667626592878</v>
       </c>
       <c r="P32" t="n">
-        <v>1658.289033927864</v>
+        <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
-        <v>1781.721722009733</v>
+        <v>1762.404372097462</v>
       </c>
       <c r="R32" t="n">
         <v>1781.721722009733</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.46869850637</v>
+        <v>1768.468698506371</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208274</v>
+        <v>1760.318962208275</v>
       </c>
       <c r="U32" t="n">
         <v>1724.205191864604</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.647747624399</v>
+        <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508826</v>
+        <v>1491.901737508827</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687254</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>559.0376288685724</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="C33" t="n">
-        <v>369.6253546015361</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="D33" t="n">
-        <v>369.6253546015361</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0621507229505</v>
+        <v>35.63443444019465</v>
       </c>
       <c r="F33" t="n">
         <v>35.63443444019465</v>
@@ -6801,28 +6801,28 @@
         <v>792.7949833132782</v>
       </c>
       <c r="R33" t="n">
-        <v>792.7949833132782</v>
+        <v>656.7122964673543</v>
       </c>
       <c r="S33" t="n">
-        <v>792.7949833132782</v>
+        <v>656.7122964673543</v>
       </c>
       <c r="T33" t="n">
-        <v>792.2160505096854</v>
+        <v>656.1333636637615</v>
       </c>
       <c r="U33" t="n">
-        <v>769.1552849869591</v>
+        <v>416.5090488366417</v>
       </c>
       <c r="V33" t="n">
-        <v>742.6391161949867</v>
+        <v>389.9928800446693</v>
       </c>
       <c r="W33" t="n">
-        <v>689.8040962296716</v>
+        <v>264.2195725837771</v>
       </c>
       <c r="X33" t="n">
-        <v>686.8596511507615</v>
+        <v>261.275127504867</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.7825073904827</v>
+        <v>35.63443444019465</v>
       </c>
     </row>
     <row r="34">
@@ -6856,49 +6856,49 @@
         <v>35.63443444019465</v>
       </c>
       <c r="J34" t="n">
-        <v>35.63443444019465</v>
+        <v>128.8492114449706</v>
       </c>
       <c r="K34" t="n">
-        <v>35.63443444019465</v>
+        <v>128.8492114449706</v>
       </c>
       <c r="L34" t="n">
-        <v>35.63443444019465</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="M34" t="n">
-        <v>35.63443444019465</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="N34" t="n">
-        <v>35.63443444019465</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="O34" t="n">
-        <v>94.21032217968937</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="P34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="Q34" t="n">
-        <v>248.5671146719088</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854715</v>
+        <v>259.4241500854717</v>
       </c>
       <c r="S34" t="n">
-        <v>238.1710034979494</v>
+        <v>238.1710034979496</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863106</v>
+        <v>228.7126565863107</v>
       </c>
       <c r="U34" t="n">
-        <v>153.7039245925156</v>
+        <v>153.7039245925157</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742325</v>
+        <v>122.6826100742326</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090454993</v>
+        <v>46.00302090454998</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001163</v>
+        <v>38.40550414001166</v>
       </c>
       <c r="Y34" t="n">
         <v>35.63443444019465</v>
@@ -6935,37 +6935,37 @@
         <v>51.57334671175849</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57334671175849</v>
+        <v>158.7478541225959</v>
       </c>
       <c r="K35" t="n">
-        <v>255.9491485175524</v>
+        <v>416.6044964313434</v>
       </c>
       <c r="L35" t="n">
-        <v>302.6603068565888</v>
+        <v>674.4611387400909</v>
       </c>
       <c r="M35" t="n">
-        <v>560.5169491653363</v>
+        <v>932.3177810488384</v>
       </c>
       <c r="N35" t="n">
-        <v>635.8338924689984</v>
+        <v>1007.6347243525</v>
       </c>
       <c r="O35" t="n">
-        <v>670.0441875457807</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0441875457807</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5614246445701</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="R35" t="n">
-        <v>926.963323573761</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0585842550366</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.155576726193</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.4001042671712</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="C36" t="n">
-        <v>194.4001042671712</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="D36" t="n">
-        <v>194.4001042671712</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83690038858565</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83690038858565</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83690038858565</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83690038858565</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="I36" t="n">
         <v>20.83690038858565</v>
@@ -7041,25 +7041,25 @@
         <v>777.9974492616692</v>
       </c>
       <c r="S36" t="n">
-        <v>777.9974492616692</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="T36" t="n">
-        <v>777.9974492616692</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="U36" t="n">
-        <v>777.9974492616692</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="V36" t="n">
-        <v>534.9177311653033</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="W36" t="n">
-        <v>534.9177311653033</v>
+        <v>321.3785985370572</v>
       </c>
       <c r="X36" t="n">
-        <v>372.9359571941063</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="Y36" t="n">
-        <v>372.9359571941063</v>
+        <v>129.2859430516048</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
       <c r="E37" t="n">
         <v>56.03802837397788</v>
@@ -7138,7 +7138,7 @@
         <v>20.83690038858565</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858565</v>
+        <v>56.03802837397788</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379705</v>
+        <v>623.0203756379711</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837513</v>
+        <v>544.0845948837519</v>
       </c>
       <c r="D38" t="n">
-        <v>477.707741138574</v>
+        <v>477.7077411385746</v>
       </c>
       <c r="E38" t="n">
-        <v>377.2836627273272</v>
+        <v>377.2836627273279</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874164</v>
+        <v>244.8188392874171</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962315</v>
+        <v>96.55706098962318</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57334671175849</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="J38" t="n">
-        <v>244.892819196293</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="K38" t="n">
-        <v>244.892819196293</v>
+        <v>45.23736657613921</v>
       </c>
       <c r="L38" t="n">
-        <v>291.6039775353295</v>
+        <v>303.0940088848869</v>
       </c>
       <c r="M38" t="n">
-        <v>372.4551011486748</v>
+        <v>383.9451324982322</v>
       </c>
       <c r="N38" t="n">
-        <v>447.772044452337</v>
+        <v>641.8017748069799</v>
       </c>
       <c r="O38" t="n">
-        <v>481.9823395291193</v>
+        <v>899.6584171157276</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0441875457807</v>
+        <v>899.6584171157276</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5614246445701</v>
+        <v>899.6584171157276</v>
       </c>
       <c r="R38" t="n">
-        <v>926.963323573761</v>
+        <v>976.0603160449185</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0585842550366</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.155576726193</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="U38" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781209</v>
+        <v>992.5311717781216</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515905</v>
+        <v>926.0287582515912</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190609</v>
+        <v>837.4190210190616</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160831</v>
+        <v>726.0791291160838</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.83690038858565</v>
+        <v>279.5330517793007</v>
       </c>
       <c r="C39" t="n">
-        <v>20.83690038858565</v>
+        <v>279.5330517793007</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858565</v>
+        <v>279.5330517793007</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858565</v>
+        <v>279.5330517793007</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858565</v>
+        <v>279.5330517793007</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858565</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858565</v>
+        <v>129.2859430516048</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185126</v>
+        <v>58.79492441185128</v>
       </c>
       <c r="L39" t="n">
         <v>176.1207143568483</v>
@@ -7278,25 +7278,25 @@
         <v>777.9974492616692</v>
       </c>
       <c r="S39" t="n">
-        <v>777.9974492616692</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="T39" t="n">
-        <v>777.9974492616692</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="U39" t="n">
-        <v>538.3731344345493</v>
+        <v>584.4707751606135</v>
       </c>
       <c r="V39" t="n">
-        <v>295.2934163381834</v>
+        <v>542.6252284028571</v>
       </c>
       <c r="W39" t="n">
-        <v>240.3448947718893</v>
+        <v>279.5330517793007</v>
       </c>
       <c r="X39" t="n">
-        <v>20.83690038858565</v>
+        <v>279.5330517793007</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.83690038858565</v>
+        <v>279.5330517793007</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397788</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397788</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27289296922554</v>
+        <v>39.27289296922555</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858565</v>
+        <v>20.83690038858567</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.4119981543695</v>
+        <v>818.4119981543697</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153499</v>
+        <v>708.1156967153502</v>
       </c>
       <c r="D41" t="n">
-        <v>610.3783222853724</v>
+        <v>610.3783222853726</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893251</v>
+        <v>478.5937231893254</v>
       </c>
       <c r="F41" t="n">
-        <v>314.768379064614</v>
+        <v>314.7683790646142</v>
       </c>
       <c r="G41" t="n">
         <v>135.1460800820201</v>
@@ -7412,31 +7412,31 @@
         <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>422.5827360122557</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="L41" t="n">
-        <v>469.2938943512921</v>
+        <v>303.2302852251535</v>
       </c>
       <c r="M41" t="n">
-        <v>788.7470553316214</v>
+        <v>622.6834462054828</v>
       </c>
       <c r="N41" t="n">
-        <v>1102.666036002267</v>
+        <v>698.000389509145</v>
       </c>
       <c r="O41" t="n">
-        <v>1136.87633107905</v>
+        <v>970.8127219529113</v>
       </c>
       <c r="P41" t="n">
-        <v>1176.10433592139</v>
+        <v>1194.464882069375</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.885126697007</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="R41" t="n">
-        <v>1371.550579303025</v>
+        <v>1389.911125451009</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.909393661128</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="T41" t="n">
         <v>1403.269939809112</v>
@@ -7445,7 +7445,7 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V41" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W41" t="n">
         <v>1215.501942822391</v>
@@ -7454,7 +7454,7 @@
         <v>1095.531684905061</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.8312723172825</v>
+        <v>952.8312723172827</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>339.0926237628464</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="C42" t="n">
-        <v>339.0926237628464</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="D42" t="n">
-        <v>178.3125075238781</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="E42" t="n">
-        <v>178.3125075238781</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="F42" t="n">
-        <v>178.3125075238781</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="G42" t="n">
-        <v>28.06539879618224</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06539879618224</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06539879618224</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="J42" t="n">
         <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944784</v>
+        <v>66.02342281944786</v>
       </c>
       <c r="L42" t="n">
         <v>183.3492127644449</v>
       </c>
       <c r="M42" t="n">
-        <v>365.017539947711</v>
+        <v>365.0175399477111</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9139767474193</v>
+        <v>569.9139767474194</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6071042906905</v>
+        <v>701.6071042906906</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2259476692657</v>
+        <v>778.2828270041919</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2259476692657</v>
+        <v>642.200140158268</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2259476692657</v>
+        <v>642.200140158268</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2259476692657</v>
+        <v>425.0576580502817</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2259476692657</v>
+        <v>425.0576580502817</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2259476692657</v>
+        <v>181.9779399539158</v>
       </c>
       <c r="W42" t="n">
-        <v>737.1364710730851</v>
+        <v>156.025995892843</v>
       </c>
       <c r="X42" t="n">
-        <v>517.6284766897815</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="Y42" t="n">
-        <v>517.6284766897815</v>
+        <v>81.07378649712277</v>
       </c>
     </row>
     <row r="43">
@@ -7555,40 +7555,40 @@
         <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06539879618224</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="K43" t="n">
-        <v>130.125806765216</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="L43" t="n">
-        <v>130.125806765216</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="M43" t="n">
-        <v>130.125806765216</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="N43" t="n">
-        <v>130.125806765216</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="O43" t="n">
-        <v>130.125806765216</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="P43" t="n">
-        <v>130.125806765216</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.125806765216</v>
+        <v>92.92066865790542</v>
       </c>
       <c r="R43" t="n">
         <v>130.125806765216</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543695</v>
+        <v>818.4119981543699</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153499</v>
+        <v>708.1156967153504</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3783222853724</v>
+        <v>610.3783222853729</v>
       </c>
       <c r="E44" t="n">
-        <v>478.593723189325</v>
+        <v>478.5937231893254</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646139</v>
+        <v>314.7683790646142</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
@@ -7652,25 +7652,25 @@
         <v>422.5827360122557</v>
       </c>
       <c r="L44" t="n">
-        <v>469.2938943512921</v>
+        <v>707.8959317182761</v>
       </c>
       <c r="M44" t="n">
         <v>788.7470553316214</v>
       </c>
       <c r="N44" t="n">
-        <v>921.6525496256081</v>
+        <v>995.6266938402499</v>
       </c>
       <c r="O44" t="n">
-        <v>1194.464882069374</v>
+        <v>1029.836988917032</v>
       </c>
       <c r="P44" t="n">
-        <v>1194.464882069374</v>
+        <v>1253.489149033496</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.245672844991</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.911125451009</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="S44" t="n">
         <v>1403.269939809112</v>
@@ -7682,7 +7682,7 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.364877033721</v>
+        <v>1313.364877033722</v>
       </c>
       <c r="W44" t="n">
         <v>1215.501942822391</v>
@@ -7691,7 +7691,7 @@
         <v>1095.531684905061</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172825</v>
+        <v>952.8312723172829</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>522.8364351964919</v>
+        <v>299.0518034038407</v>
       </c>
       <c r="C45" t="n">
-        <v>522.8364351964919</v>
+        <v>299.0518034038407</v>
       </c>
       <c r="D45" t="n">
-        <v>362.0563189575237</v>
+        <v>299.0518034038407</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4931150789382</v>
+        <v>286.7615501868973</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06539879618224</v>
+        <v>286.7615501868973</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06539879618224</v>
+        <v>136.5144414592014</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06539879618224</v>
+        <v>136.5144414592014</v>
       </c>
       <c r="I45" t="n">
         <v>28.06539879618224</v>
@@ -7728,49 +7728,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02342281944784</v>
+        <v>66.02342281944786</v>
       </c>
       <c r="L45" t="n">
         <v>183.3492127644449</v>
       </c>
       <c r="M45" t="n">
-        <v>365.017539947711</v>
+        <v>365.0175399477111</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9139767474193</v>
+        <v>569.9139767474194</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6071042906905</v>
+        <v>701.6071042906906</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692658</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2259476692657</v>
+        <v>568.0834655612795</v>
       </c>
       <c r="U45" t="n">
-        <v>785.2259476692657</v>
+        <v>568.0834655612795</v>
       </c>
       <c r="V45" t="n">
-        <v>768.2963736408684</v>
+        <v>325.0037474649135</v>
       </c>
       <c r="W45" t="n">
-        <v>742.3444295797956</v>
+        <v>299.0518034038407</v>
       </c>
       <c r="X45" t="n">
-        <v>522.8364351964919</v>
+        <v>299.0518034038407</v>
       </c>
       <c r="Y45" t="n">
-        <v>522.8364351964919</v>
+        <v>299.0518034038407</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.82668470484782</v>
+        <v>46.96717530900613</v>
       </c>
       <c r="C46" t="n">
-        <v>90.82668470484782</v>
+        <v>46.96717530900613</v>
       </c>
       <c r="D46" t="n">
-        <v>90.82668470484782</v>
+        <v>46.96717530900613</v>
       </c>
       <c r="E46" t="n">
-        <v>90.82668470484782</v>
+        <v>55.69016781671841</v>
       </c>
       <c r="F46" t="n">
-        <v>90.82668470484782</v>
+        <v>55.69016781671841</v>
       </c>
       <c r="G46" t="n">
-        <v>90.82668470484782</v>
+        <v>55.69016781671841</v>
       </c>
       <c r="H46" t="n">
-        <v>90.82668470484782</v>
+        <v>130.125806765216</v>
       </c>
       <c r="I46" t="n">
-        <v>90.82668470484782</v>
+        <v>130.125806765216</v>
       </c>
       <c r="J46" t="n">
-        <v>90.82668470484782</v>
+        <v>130.125806765216</v>
       </c>
       <c r="K46" t="n">
         <v>130.125806765216</v>
@@ -7846,10 +7846,10 @@
         <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>28.06539879618224</v>
+        <v>46.96717530900613</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.06539879618224</v>
+        <v>46.96717530900613</v>
       </c>
     </row>
   </sheetData>
@@ -8535,13 +8535,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
         <v>173.5713770459633</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7537581727915</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
@@ -9018,7 +9018,7 @@
         <v>292.1338058733768</v>
       </c>
       <c r="O15" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
@@ -9480,7 +9480,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.459431452055099</v>
+        <v>195.9454765282924</v>
       </c>
       <c r="C11" t="n">
         <v>172.0637335316379</v>
@@ -23267,7 +23267,7 @@
         <v>193.3371482120952</v>
       </c>
       <c r="F11" t="n">
-        <v>91.25139220364559</v>
+        <v>36.57144071423525</v>
       </c>
       <c r="G11" t="n">
         <v>52.21042602353975</v>
@@ -23276,7 +23276,7 @@
         <v>168.880269579988</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700854</v>
+        <v>62.87039510700853</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.7436753029499</v>
       </c>
       <c r="S11" t="n">
         <v>49.37664323013701</v>
@@ -23318,7 +23318,7 @@
         <v>142.7380197596111</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>9.204931086449042</v>
       </c>
       <c r="X11" t="n">
         <v>181.6409504451652</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.459431452055043</v>
+        <v>195.9454765282924</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0637335316378</v>
+        <v>172.0637335316379</v>
       </c>
       <c r="D14" t="n">
         <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120951</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0574857904725</v>
+        <v>36.57144071423525</v>
       </c>
       <c r="G14" t="n">
-        <v>88.20516118201559</v>
+        <v>240.696471099777</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8802695799879</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700848</v>
+        <v>62.87039510700853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3243888969237</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204229</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7380197596111</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>156.5839060088799</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6409504451652</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1438035689089</v>
+        <v>15.65775849267166</v>
       </c>
     </row>
     <row r="15">
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>980251.3032370893</v>
+        <v>980251.3032370892</v>
       </c>
     </row>
     <row r="7">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>418917.6977088184</v>
+        <v>418917.6977088183</v>
       </c>
       <c r="C2" t="n">
         <v>418917.6977088184</v>
       </c>
       <c r="D2" t="n">
-        <v>419171.6341708981</v>
+        <v>419171.6341708982</v>
       </c>
       <c r="E2" t="n">
-        <v>360868.3240536877</v>
+        <v>360868.3240536876</v>
       </c>
       <c r="F2" t="n">
-        <v>360868.3240536878</v>
+        <v>360868.3240536876</v>
       </c>
       <c r="G2" t="n">
-        <v>419766.3107078045</v>
+        <v>419766.3107078046</v>
       </c>
       <c r="H2" t="n">
         <v>419766.3107078046</v>
       </c>
       <c r="I2" t="n">
-        <v>419766.3107078047</v>
+        <v>419766.3107078045</v>
       </c>
       <c r="J2" t="n">
         <v>419766.3107078049</v>
       </c>
       <c r="K2" t="n">
-        <v>419766.3107078047</v>
+        <v>419766.3107078048</v>
       </c>
       <c r="L2" t="n">
         <v>419766.3107078043</v>
@@ -26350,10 +26350,10 @@
         <v>419766.3107078049</v>
       </c>
       <c r="O2" t="n">
-        <v>419766.3107078044</v>
+        <v>419766.3107078043</v>
       </c>
       <c r="P2" t="n">
-        <v>419766.3107078043</v>
+        <v>419766.3107078045</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>279010.1432673798</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>95448.13167658167</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710102</v>
+        <v>143490.4163710104</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395816</v>
+        <v>96176.03924395815</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852183</v>
+        <v>46128.92849852185</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134115</v>
+        <v>72249.07655134113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,7 +26442,7 @@
         <v>350153.975640944</v>
       </c>
       <c r="K4" t="n">
-        <v>350153.975640944</v>
+        <v>350153.9756409439</v>
       </c>
       <c r="L4" t="n">
         <v>350137.7173335238</v>
@@ -26454,7 +26454,7 @@
         <v>349329.303575735</v>
       </c>
       <c r="O4" t="n">
-        <v>349716.3329031965</v>
+        <v>349716.3329031964</v>
       </c>
       <c r="P4" t="n">
         <v>349716.3329031965</v>
@@ -26479,10 +26479,10 @@
         <v>28641.3515203439</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.35152034391</v>
+        <v>28641.3515203439</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="H5" t="n">
         <v>38671.63774774209</v>
@@ -26497,13 +26497,13 @@
         <v>47448.92101020608</v>
       </c>
       <c r="L5" t="n">
-        <v>47311.5884253959</v>
+        <v>47311.58842539589</v>
       </c>
       <c r="M5" t="n">
         <v>40912.97865860085</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860085</v>
+        <v>40912.97865860086</v>
       </c>
       <c r="O5" t="n">
         <v>43796.55431105828</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7924.516003536897</v>
+        <v>-7928.982387742146</v>
       </c>
       <c r="C6" t="n">
-        <v>-7924.516003536897</v>
+        <v>-7928.982387742088</v>
       </c>
       <c r="D6" t="n">
-        <v>-8697.725607299857</v>
+        <v>-8700.855483809775</v>
       </c>
       <c r="E6" t="n">
-        <v>-225592.7141921503</v>
+        <v>-225902.7035955931</v>
       </c>
       <c r="F6" t="n">
-        <v>53417.42907522952</v>
+        <v>53107.43967178663</v>
       </c>
       <c r="G6" t="n">
-        <v>-63778.06847943776</v>
+        <v>-63778.06847943764</v>
       </c>
       <c r="H6" t="n">
-        <v>31670.06319714405</v>
+        <v>31670.06319714399</v>
       </c>
       <c r="I6" t="n">
-        <v>31670.06319714422</v>
+        <v>31670.06319714399</v>
       </c>
       <c r="J6" t="n">
-        <v>-121327.0023143554</v>
+        <v>-121327.0023143555</v>
       </c>
       <c r="K6" t="n">
-        <v>22163.4140566547</v>
+        <v>22163.41405665482</v>
       </c>
       <c r="L6" t="n">
-        <v>-73859.03429507348</v>
+        <v>-73859.03429507354</v>
       </c>
       <c r="M6" t="n">
         <v>-16604.90002505274</v>
       </c>
       <c r="N6" t="n">
-        <v>29524.02847346906</v>
+        <v>29524.02847346905</v>
       </c>
       <c r="O6" t="n">
         <v>-45995.6530577915</v>
       </c>
       <c r="P6" t="n">
-        <v>26253.42349354961</v>
+        <v>26253.42349354978</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
+        <v>297.451928445268</v>
+      </c>
+      <c r="H2" t="n">
         <v>297.4519284452681</v>
       </c>
-      <c r="H2" t="n">
-        <v>297.4519284452682</v>
-      </c>
       <c r="I2" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J2" t="n">
         <v>213.488029352129</v>
@@ -26811,7 +26811,7 @@
         <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335582</v>
       </c>
       <c r="K4" t="n">
         <v>448.9472999335579</v>
@@ -26823,13 +26823,13 @@
         <v>260.4612548573207</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="O4" t="n">
-        <v>350.817484952278</v>
+        <v>350.8174849522781</v>
       </c>
       <c r="P4" t="n">
-        <v>350.817484952278</v>
+        <v>350.8174849522781</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>119.3101645957271</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640179</v>
+        <v>94.17786475640185</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.2200490549477</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315228</v>
+        <v>57.66116062315231</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844946</v>
+        <v>63.13094927844949</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573207</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495731</v>
+        <v>90.3562300949572</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>119.3101645957271</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640179</v>
+        <v>94.17786475640185</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3013968910535</v>
+        <v>111.1237485033009</v>
       </c>
       <c r="K8" t="n">
         <v>58.46339092876153</v>
@@ -27892,7 +27892,7 @@
         <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>73.40104353855554</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
         <v>133.6328276992101</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
@@ -27992,13 +27992,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>263.6069249820769</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
-        <v>213.7960450083458</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>220.2866275390909</v>
       </c>
     </row>
     <row r="10">
@@ -28117,7 +28117,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -28129,7 +28129,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>160.7602011037068</v>
+        <v>19.45714424871849</v>
       </c>
       <c r="Q11" t="n">
         <v>178.141763849541</v>
@@ -28211,22 +28211,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.87368945842314</v>
       </c>
       <c r="R12" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>88.82058058165262</v>
+        <v>3.105362283807921</v>
       </c>
       <c r="T12" t="n">
-        <v>26.4850122106692</v>
+        <v>101.9056918135371</v>
       </c>
       <c r="U12" t="n">
-        <v>48.74202660261134</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V12" t="n">
-        <v>178.141763849541</v>
+        <v>52.16287583916497</v>
       </c>
       <c r="W12" t="n">
         <v>178.141763849541</v>
@@ -28248,49 +28248,49 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
+        <v>166.4571809719723</v>
+      </c>
+      <c r="D13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="D13" t="n">
-        <v>145.1826502507107</v>
-      </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>178.141763849541</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>178.141763849541</v>
+        <v>170.5099833742829</v>
       </c>
       <c r="H13" t="n">
         <v>165.824644867158</v>
       </c>
       <c r="I13" t="n">
+        <v>164.8538042427314</v>
+      </c>
+      <c r="J13" t="n">
+        <v>120.241573402485</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.03321058462939</v>
+      </c>
+      <c r="L13" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="J13" t="n">
+      <c r="M13" t="n">
         <v>178.141763849541</v>
-      </c>
-      <c r="K13" t="n">
-        <v>178.141763849541</v>
-      </c>
-      <c r="L13" t="n">
-        <v>32.15595010613789</v>
-      </c>
-      <c r="M13" t="n">
-        <v>25.22122397250157</v>
       </c>
       <c r="N13" t="n">
         <v>16.52441230575095</v>
       </c>
       <c r="O13" t="n">
-        <v>174.2775353949273</v>
+        <v>178.141763849541</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28348,28 +28348,28 @@
         <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
+        <v>76.78688000567911</v>
+      </c>
+      <c r="K14" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="K14" t="n">
-        <v>160.7602011037067</v>
-      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>116.2109637710185</v>
       </c>
       <c r="P14" t="n">
-        <v>178.141763849541</v>
+        <v>15.10088611163701</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R14" t="n">
         <v>178.141763849541</v>
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>170.0006570629796</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28421,7 +28421,7 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>107.364552236389</v>
@@ -28448,13 +28448,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.87368945842314</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>3.105362283807923</v>
+        <v>105.0834389692378</v>
       </c>
       <c r="T15" t="n">
         <v>178.141763849541</v>
@@ -28463,7 +28463,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="V15" t="n">
-        <v>178.141763849541</v>
+        <v>52.16287583916497</v>
       </c>
       <c r="W15" t="n">
         <v>178.141763849541</v>
@@ -28491,31 +28491,31 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>172.2254163592914</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7008027322384</v>
+        <v>178.141763849541</v>
       </c>
       <c r="H16" t="n">
         <v>165.824644867158</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8538042427314</v>
+        <v>178.141763849541</v>
       </c>
       <c r="J16" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="K16" t="n">
-        <v>178.141763849541</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L16" t="n">
         <v>32.15595010613789</v>
       </c>
       <c r="M16" t="n">
-        <v>25.22122397250157</v>
+        <v>144.1501316603681</v>
       </c>
       <c r="N16" t="n">
         <v>16.52441230575095</v>
@@ -28561,76 +28561,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4519284452681</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J17" t="n">
-        <v>146.4846049341843</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103249</v>
+        <v>24.08048714224459</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4083245674876</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163701</v>
+        <v>203.5869311878743</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R17" t="n">
         <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4519284452681</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452681</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4519284452681</v>
+        <v>297.451928445268</v>
       </c>
     </row>
     <row r="18">
@@ -28643,13 +28643,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>82.89199202150888</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -28661,10 +28661,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.87368945842314</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>28.05534475666911</v>
       </c>
       <c r="S18" t="n">
         <v>3.105362283807923</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9710572869065</v>
+        <v>26.4850122106692</v>
       </c>
       <c r="U18" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916497</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28798,40 +28798,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J20" t="n">
         <v>76.78688000567911</v>
       </c>
       <c r="K20" t="n">
-        <v>6.735077083103249</v>
+        <v>195.2211221593405</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>69.69772492850524</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28843,31 +28843,31 @@
         <v>15.10088611163701</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.3357116123358</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4519284452682</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="21">
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>123.583221778348</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>148.7446376404189</v>
@@ -28925,28 +28925,28 @@
         <v>6.87368945842314</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9710572869065</v>
+        <v>26.4850122106692</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261133</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916497</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>186.0162659137854</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.89824105778834</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -29035,40 +29035,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0121589565495</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K23" t="n">
         <v>6.735077083103249</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3030568549883</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>141.2383805288606</v>
+        <v>15.10088611163701</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037103</v>
+        <v>99.7809006035297</v>
       </c>
       <c r="R23" t="n">
         <v>194.8854391524908</v>
       </c>
       <c r="S23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>169.5554250144444</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>183.9101454881388</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29129,16 +29129,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>6.87368945842314</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.5914073600452</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.21853850077432</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.82686936323333</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.89824105778834</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29317,7 +29317,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.488029352129</v>
+        <v>213.4880293521299</v>
       </c>
       <c r="R26" t="n">
         <v>213.488029352129</v>
@@ -29360,16 +29360,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.364552236389</v>
@@ -29402,19 +29402,19 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>81.26805725622759</v>
       </c>
       <c r="U27" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
-        <v>160.1277524386415</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.488029352129</v>
@@ -29430,7 +29430,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.488029352129</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
         <v>213.488029352129</v>
@@ -29439,22 +29439,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>213.488029352129</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.488029352129</v>
       </c>
       <c r="G28" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H28" t="n">
-        <v>213.488029352129</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I28" t="n">
-        <v>213.488029352129</v>
+        <v>203.998650007791</v>
       </c>
       <c r="J28" t="n">
-        <v>173.5907361596014</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K28" t="n">
         <v>67.03321058462939</v>
@@ -29642,22 +29642,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>10.19680259092561</v>
+      </c>
+      <c r="W30" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="U30" t="n">
+      <c r="X30" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="V30" t="n">
+      <c r="Y30" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="W30" t="n">
-        <v>10.19680259092564</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29682,13 +29682,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7008027322384</v>
+        <v>213.488029352129</v>
       </c>
       <c r="H31" t="n">
         <v>165.824644867158</v>
       </c>
       <c r="I31" t="n">
-        <v>164.8538042427314</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J31" t="n">
         <v>120.241573402485</v>
@@ -29706,16 +29706,16 @@
         <v>16.52441230575095</v>
       </c>
       <c r="O31" t="n">
-        <v>37.4828141202879</v>
+        <v>80.28455873942833</v>
       </c>
       <c r="P31" t="n">
+        <v>58.48196179900677</v>
+      </c>
+      <c r="Q31" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="Q31" t="n">
-        <v>204.761976126157</v>
-      </c>
       <c r="R31" t="n">
-        <v>203.4312113734075</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S31" t="n">
         <v>213.488029352129</v>
@@ -29770,10 +29770,10 @@
         <v>214.3979138113496</v>
       </c>
       <c r="J32" t="n">
-        <v>211.7960463473145</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.283571688456</v>
       </c>
       <c r="L32" t="n">
         <v>214.3979138113496</v>
@@ -29794,7 +29794,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="R32" t="n">
-        <v>194.8854391524908</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S32" t="n">
         <v>214.3979138113496</v>
@@ -29825,19 +29825,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>59.19306466097451</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446376404189</v>
@@ -29873,7 +29873,7 @@
         <v>6.87368945842314</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5914073600452</v>
@@ -29882,19 +29882,19 @@
         <v>214.3979138113496</v>
       </c>
       <c r="U33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3979138113496</v>
+        <v>142.1890091907284</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113496</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.3979138113496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29928,13 +29928,13 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J34" t="n">
-        <v>120.241573402485</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="K34" t="n">
         <v>67.03321058462939</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15595010613789</v>
+        <v>164.0498275207855</v>
       </c>
       <c r="M34" t="n">
         <v>25.22122397250157</v>
@@ -29943,16 +29943,16 @@
         <v>16.52441230575095</v>
       </c>
       <c r="O34" t="n">
-        <v>96.6503774935149</v>
+        <v>37.4828141202879</v>
       </c>
       <c r="P34" t="n">
-        <v>214.3979138113496</v>
+        <v>58.48196179900677</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R34" t="n">
-        <v>214.3979138113496</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S34" t="n">
         <v>214.3979138113496</v>
@@ -30007,13 +30007,13 @@
         <v>272.0590744345018</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78688000567911</v>
+        <v>185.0439581984442</v>
       </c>
       <c r="K35" t="n">
-        <v>213.1752809273395</v>
+        <v>267.196331940424</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>213.2782666360717</v>
       </c>
       <c r="M35" t="n">
         <v>178.7934532276789</v>
@@ -30028,19 +30028,19 @@
         <v>15.10088611163701</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0590744345018</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0590744345018</v>
+        <v>250.1505464515833</v>
       </c>
       <c r="V35" t="n">
         <v>272.0590744345018</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,7 +30071,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30083,7 +30083,7 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I36" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>52.47830382393111</v>
@@ -30113,7 +30113,7 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>214.9710572869065</v>
@@ -30122,13 +30122,13 @@
         <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243328719690908</v>
       </c>
       <c r="X36" t="n">
-        <v>56.95095820798562</v>
+        <v>27.14118550887278</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30150,7 +30150,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>177.2328361469646</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
@@ -30210,7 +30210,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>252.697967748908</v>
       </c>
     </row>
     <row r="38">
@@ -30241,31 +30241,31 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0590744345018</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0590744345018</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K38" t="n">
-        <v>6.735077083103249</v>
+        <v>31.38201262608662</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>213.2782666360719</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3835343485712</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>225.9054012444094</v>
       </c>
       <c r="P38" t="n">
-        <v>205.0623487547293</v>
+        <v>15.10088611163701</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037103</v>
       </c>
       <c r="R38" t="n">
         <v>272.0590744345018</v>
@@ -30274,7 +30274,7 @@
         <v>272.0590744345018</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U38" t="n">
         <v>272.0590744345018</v>
@@ -30314,13 +30314,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I39" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>52.47830382393111</v>
@@ -30350,22 +30350,22 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>199.2218296252235</v>
       </c>
       <c r="W39" t="n">
-        <v>212.3055472263804</v>
+        <v>6.243328719690737</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>204.257497666978</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H40" t="n">
         <v>165.824644867158</v>
@@ -30426,7 +30426,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R40" t="n">
-        <v>203.4312113734075</v>
+        <v>238.9879063081471</v>
       </c>
       <c r="S40" t="n">
         <v>235.4385289329965</v>
@@ -30484,22 +30484,22 @@
         <v>241.0121589565495</v>
       </c>
       <c r="K41" t="n">
-        <v>241.0121589565495</v>
+        <v>6.735077083103249</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>66.53606255411431</v>
       </c>
       <c r="M41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
-        <v>54.72513342713259</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="Q41" t="n">
         <v>241.0121589565495</v>
@@ -30511,7 +30511,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="T41" t="n">
-        <v>241.0121589565495</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U41" t="n">
         <v>241.0121589565495</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30551,7 +30551,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
         <v>125.7358448975026</v>
@@ -30560,7 +30560,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.87368945842314</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>219.0960017467928</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>143.1102271377076</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30627,7 +30627,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>204.4372558161468</v>
       </c>
       <c r="G43" t="n">
         <v>168.7008027322384</v>
@@ -30642,7 +30642,7 @@
         <v>120.241573402485</v>
       </c>
       <c r="K43" t="n">
-        <v>170.1245317654716</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L43" t="n">
         <v>32.15595010613789</v>
@@ -30663,7 +30663,7 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4312113734075</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="S43" t="n">
         <v>235.4385289329965</v>
@@ -30724,28 +30724,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>132.8916113181479</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="N44" t="n">
-        <v>58.17025352558039</v>
-      </c>
-      <c r="O44" t="n">
-        <v>241.0121589565495</v>
-      </c>
-      <c r="P44" t="n">
-        <v>15.10088611163701</v>
       </c>
       <c r="Q44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="R44" t="n">
-        <v>241.0121589565495</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T44" t="n">
         <v>222.4661527464647</v>
@@ -30779,22 +30779,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>159.6602211550257</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I45" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>52.47830382393111</v>
@@ -30827,19 +30827,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>223.888642627289</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.0121589565495</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>150.4872447553687</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30870,7 +30870,7 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H46" t="n">
-        <v>165.824644867158</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="I46" t="n">
         <v>164.8538042427314</v>
@@ -30879,7 +30879,7 @@
         <v>120.241573402485</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7292934738902</v>
+        <v>67.03321058462939</v>
       </c>
       <c r="L46" t="n">
         <v>32.15595010613789</v>
@@ -30918,7 +30918,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X46" t="n">
-        <v>221.9194554082425</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -35255,13 +35255,13 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1678556611008975</v>
+        <v>0.167855661100898</v>
       </c>
       <c r="N9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
@@ -35413,7 +35413,7 @@
         <v>171.4066867664377</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124893</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M11" t="n">
         <v>81.66780162964176</v>
@@ -35425,7 +35425,7 @@
         <v>34.55585361291141</v>
       </c>
       <c r="P11" t="n">
-        <v>145.6593149920698</v>
+        <v>4.356258137081476</v>
       </c>
       <c r="Q11" t="n">
         <v>88.42333294916992</v>
@@ -35544,49 +35544,49 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.6845828775686</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.95911359883024</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.46562263731596</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>9.440961117302541</v>
+        <v>1.809180642044483</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.28795960680959</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90019044705591</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>111.1085532649116</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9205398770394</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>136.7947212746394</v>
+        <v>140.658949729253</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906437</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>154.0251240206034</v>
+        <v>171.4066867664377</v>
       </c>
       <c r="L14" t="n">
         <v>47.18298822124893</v>
       </c>
       <c r="M14" t="n">
-        <v>81.66780162964176</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N14" t="n">
-        <v>76.07772050874965</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O14" t="n">
-        <v>34.55585361291141</v>
+        <v>150.7668173839299</v>
       </c>
       <c r="P14" t="n">
-        <v>163.040877737904</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916997</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017698</v>
+        <v>84.46347816017695</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35787,43 +35787,43 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>30.54927514706637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.440961117302541</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.28795960680959</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90019044705597</v>
+        <v>57.90019044705591</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1085532649116</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>118.9289076878666</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>140.658949729253</v>
       </c>
       <c r="P16" t="n">
         <v>119.6598020505342</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.92244958906443</v>
+        <v>50.92244958906437</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43976948871861</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.69772492850517</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>17.34541005914134</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124893</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M17" t="n">
         <v>81.66780162964176</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874965</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O17" t="n">
         <v>34.55585361291141</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.93352136559014</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368479</v>
+        <v>47.30138199368474</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,19 +36115,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871867</v>
+        <v>56.43976948871861</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L20" t="n">
         <v>47.18298822124893</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964176</v>
+        <v>151.365526558147</v>
       </c>
       <c r="N20" t="n">
         <v>76.07772050874965</v>
@@ -36139,19 +36139,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.6172807119648</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9335213655902</v>
+        <v>69.93352136559014</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U20" t="n">
-        <v>47.30138199368485</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.341438407339</v>
+        <v>38.34143840733896</v>
       </c>
       <c r="L21" t="n">
         <v>118.5108989343404</v>
@@ -36352,19 +36352,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43976948871861</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>47.18298822124893</v>
-      </c>
       <c r="M23" t="n">
-        <v>81.66780162964176</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N23" t="n">
         <v>76.07772050874965</v>
@@ -36373,22 +36373,22 @@
         <v>34.55585361291141</v>
       </c>
       <c r="P23" t="n">
-        <v>126.1374944172236</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>10.06246970315866</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.9335213655902</v>
+        <v>69.93352136559014</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U23" t="n">
-        <v>47.30138199368485</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>198.387143240492</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.769598451758</v>
+        <v>123.7695984517588</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6025901996382</v>
+        <v>18.60259019963819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36726,7 +36726,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.8711086871609</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>47.03084838015664</v>
@@ -36735,22 +36735,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.811888139904</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.56114713368234</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>47.66338448497104</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.63422510939763</v>
+        <v>39.14484576505964</v>
       </c>
       <c r="J28" t="n">
-        <v>53.34916275711642</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963819</v>
+        <v>18.6025901996382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36978,13 +36978,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.78722661989058</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63422510939763</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>42.80174461914044</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0060675531222</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.5426618656804</v>
+        <v>86.26871509165241</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.05681797872153</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>135.0091663416354</v>
+        <v>137.6110338056705</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282464</v>
+        <v>185.5484946053528</v>
       </c>
       <c r="L32" t="n">
         <v>261.5809020325985</v>
       </c>
       <c r="M32" t="n">
-        <v>296.0657154409914</v>
+        <v>296.0657154409913</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4756343200993</v>
+        <v>290.4756343200992</v>
       </c>
       <c r="O32" t="n">
         <v>248.953767424261</v>
@@ -37087,10 +37087,10 @@
         <v>199.2970276997126</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.6794829109786</v>
+        <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.51247465885878</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>94.15634040886455</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>131.8938774146476</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,16 +37239,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>59.16756337322699</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.9159520123428</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.96670243794215</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>31.04691547795236</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>108.257078192765</v>
       </c>
       <c r="K35" t="n">
-        <v>206.4402038442362</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124893</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="M35" t="n">
         <v>260.4612548573207</v>
@@ -37324,19 +37324,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201103</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>44.54066735482388</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.90852798291854</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37446,67 +37446,67 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>35.55669493473962</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04691547795236</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2721944288228</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>24.64693554298337</v>
       </c>
       <c r="L38" t="n">
-        <v>47.18298822124893</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="M38" t="n">
         <v>81.66780162964176</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874965</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291141</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="P38" t="n">
-        <v>189.9614626430923</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>77.17363528201103</v>
@@ -37570,7 +37570,7 @@
         <v>44.54066735482388</v>
       </c>
       <c r="T38" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>21.90852798291854</v>
@@ -37689,40 +37689,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>35.55669493473962</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>164.2252789508704</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2770818734462</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>47.18298822124893</v>
+        <v>113.7190507753632</v>
       </c>
       <c r="M41" t="n">
         <v>322.6799605861912</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874965</v>
       </c>
       <c r="O41" t="n">
-        <v>34.55585361291141</v>
+        <v>275.5680125694609</v>
       </c>
       <c r="P41" t="n">
-        <v>39.62424731549558</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2937280561785</v>
@@ -37807,7 +37807,7 @@
         <v>13.49375187687153</v>
       </c>
       <c r="T41" t="n">
-        <v>18.54600621008478</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>65.51037359770018</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>103.0913211808422</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37959,7 +37959,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.58094758314202</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,28 +38020,28 @@
         <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
-        <v>47.18298822124893</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6799605861912</v>
+        <v>81.66780162964176</v>
       </c>
       <c r="N44" t="n">
-        <v>134.24797403433</v>
+        <v>208.9693318268975</v>
       </c>
       <c r="O44" t="n">
-        <v>275.5680125694609</v>
+        <v>34.55585361291141</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q44" t="n">
         <v>151.2937280561785</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405868</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49375187687153</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.39523829158139</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8.811103543143721</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>75.18751408939153</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>39.69608288926081</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>19.09270354830696</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
